--- a/TimeSorts.xlsx
+++ b/TimeSorts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Documents\GitHub\Homeworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>countSort</t>
   </si>
@@ -35,58 +35,40 @@
     <t>bubbleSort</t>
   </si>
   <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.310</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>19.796</t>
-  </si>
-  <si>
-    <t>1796.299</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>60.829</t>
-  </si>
-  <si>
-    <t>5888.24</t>
-  </si>
-  <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.390</t>
+  </si>
+  <si>
+    <t>14.586</t>
+  </si>
+  <si>
+    <t>1225.879</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>50.347</t>
+  </si>
+  <si>
+    <t>4940.93</t>
   </si>
 </sst>
 </file>
@@ -408,7 +390,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,13 +414,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,13 +428,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,13 +442,13 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,13 +456,13 @@
         <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -491,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,13 +484,13 @@
         <v>100000</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,13 +498,13 @@
         <v>1000000</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -530,13 +512,13 @@
         <v>10000000</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,13 +526,13 @@
         <v>100000000</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
